--- a/data/trans_dic/P64D$particular_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P64D$particular_2023-Dificultad-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.5948770964944569</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.4274966660947881</v>
+        <v>0.4274966660947883</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.5128971327967234</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4993815635229887</v>
+        <v>0.5047261476230734</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3575018526225855</v>
+        <v>0.3606046981054716</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4554842307271599</v>
+        <v>0.4530265617105118</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6825134781589841</v>
+        <v>0.6737808501525893</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5057875465392834</v>
+        <v>0.5051412119254836</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5694063495770141</v>
+        <v>0.5663842473886096</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.7202656282760358</v>
+        <v>0.7202656282760359</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.5648477952541713</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.6559736794217177</v>
+        <v>0.655973679421718</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.668287812094426</v>
+        <v>0.6720914651608291</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5154622517317289</v>
+        <v>0.5149056862946465</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6220847231384683</v>
+        <v>0.6204854996688507</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7623387115761594</v>
+        <v>0.7588277684308107</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.607077948700932</v>
+        <v>0.6095042253602962</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6906184881824208</v>
+        <v>0.6875747611812536</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.6471764446843092</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7116151708520665</v>
+        <v>0.7116151708520666</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7265184842775747</v>
+        <v>0.7236823260861714</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6099849648493034</v>
+        <v>0.6073661475290084</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6829521771041338</v>
+        <v>0.686044849857671</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7998617289129168</v>
+        <v>0.7978628462296209</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6862883056820266</v>
+        <v>0.6843390533425417</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7374773153566054</v>
+        <v>0.7387466459538252</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.7548936032416649</v>
+        <v>0.7548936032416648</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.6838867987969626</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7237446138435407</v>
+        <v>0.7237446138435405</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7138496272621624</v>
+        <v>0.7172546850739101</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6445805690908195</v>
+        <v>0.6459579992315279</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6944378433524195</v>
+        <v>0.696105059495941</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7912775948179634</v>
+        <v>0.7931555527268379</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7217904273305186</v>
+        <v>0.7213777766884634</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7522992049673131</v>
+        <v>0.7515143187190004</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.7330397506117521</v>
+        <v>0.7330397506117519</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.6132947802770402</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7090771558916037</v>
+        <v>0.7079654725641005</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5897655127545842</v>
+        <v>0.5907373325832886</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6638122530052193</v>
+        <v>0.6644697339894898</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7550110568874365</v>
+        <v>0.7568746270387323</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6345755174101297</v>
+        <v>0.6377369080692482</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6969872160939081</v>
+        <v>0.6965351876394553</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>88725</v>
+        <v>89674</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>60973</v>
+        <v>61502</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>158610</v>
+        <v>157754</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>121261</v>
+        <v>119710</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>86264</v>
+        <v>86153</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>198280</v>
+        <v>197228</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>341086</v>
+        <v>343027</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>185615</v>
+        <v>185414</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>541514</v>
+        <v>540121</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>389089</v>
+        <v>387297</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>218605</v>
+        <v>219479</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>601171</v>
+        <v>598521</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>451880</v>
+        <v>450116</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>298064</v>
+        <v>296785</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>758502</v>
+        <v>761937</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>497498</v>
+        <v>496255</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>335349</v>
+        <v>334397</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>819059</v>
+        <v>820469</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>421545</v>
+        <v>423555</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>297471</v>
+        <v>298107</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>730562</v>
+        <v>732316</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>467268</v>
+        <v>468377</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>333103</v>
+        <v>332913</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>791433</v>
+        <v>790607</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1347644</v>
+        <v>1345532</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>873316</v>
+        <v>874755</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2244579</v>
+        <v>2246802</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1434945</v>
+        <v>1438486</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>939670</v>
+        <v>944351</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2356755</v>
+        <v>2355226</v>
       </c>
     </row>
     <row r="24">
